--- a/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F07938-6678-4A4E-BDEA-56FD33CE84A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C13C2F6-235F-4438-9657-D8636CD30AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8065476-3ABD-44C3-9E1E-8946EA86E837}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B70BA-97F6-4104-BCF2-D2EFAF157C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="154">
   <si>
     <t>Población cuya depresión o ansiedad le limita en 2012 (Tasa respuesta: 7,7%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>32,52%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>63,41%</t>
   </si>
   <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
   </si>
   <si>
     <t>36,59%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,31 +198,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,95%</t>
+    <t>59,79%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>37,03%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>44,05%</t>
+    <t>40,21%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -231,73 +231,73 @@
     <t>51,41%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>62,97%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -309,103 +309,109 @@
     <t>83,94%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>30,69%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -414,13 +420,13 @@
     <t>81,4%</t>
   </si>
   <si>
-    <t>40,19%</t>
+    <t>48,98%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>54,64%</t>
+    <t>60,33%</t>
   </si>
   <si>
     <t>0%</t>
@@ -432,67 +438,67 @@
     <t>18,6%</t>
   </si>
   <si>
-    <t>59,81%</t>
+    <t>51,02%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>45,36%</t>
+    <t>39,67%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7BDA3C-9D52-4BFC-BDEC-7BEBC6FE0C56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E56745-DAC2-4F2D-9E89-0B57779F5A14}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1655,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4CB8FF-A032-4752-8677-9C5D308376EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ECDB32-7ECC-4315-9A0A-25620400658B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1812,10 +1818,10 @@
         <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,13 +1836,13 @@
         <v>4903</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -1845,13 +1851,13 @@
         <v>13204</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -1860,13 +1866,13 @@
         <v>18107</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>38382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -1949,13 +1955,13 @@
         <v>99014</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>126</v>
@@ -1964,13 +1970,13 @@
         <v>137396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1991,13 @@
         <v>3036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2000,13 +2006,13 @@
         <v>27341</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2015,13 +2021,13 @@
         <v>30376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2098,7 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -2104,10 +2110,10 @@
         <v>8780</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>62</v>
@@ -2119,10 +2125,10 @@
         <v>11668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>62</v>
@@ -2143,10 +2149,10 @@
         <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2155,13 +2161,13 @@
         <v>2007</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2170,13 +2176,13 @@
         <v>2007</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2250,13 @@
         <v>66891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -2259,13 +2265,13 @@
         <v>237916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
@@ -2274,13 +2280,13 @@
         <v>304808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2301,13 @@
         <v>7939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -2310,13 +2316,13 @@
         <v>42552</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -2325,13 +2331,13 @@
         <v>50490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B23-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C13C2F6-235F-4438-9657-D8636CD30AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF93B7B-545E-4023-A670-14FC26412BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B70BA-97F6-4104-BCF2-D2EFAF157C2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85A670CE-EEA5-483A-B101-38C39982F76B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>32,52%</t>
   </si>
   <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>63,41%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>36,59%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -198,31 +198,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,79%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>48,59%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>37,03%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
   </si>
   <si>
     <t>78,25%</t>
   </si>
   <si>
-    <t>40,21%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -231,187 +231,187 @@
     <t>51,41%</t>
   </si>
   <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>62,97%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>71,62%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
   </si>
   <si>
     <t>68,96%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya depresión o ansiedad le limita en 2015 (Tasa respuesta: 4,98%)</t>
+    <t>Población cuya depresión o ansiedad le limita en 2016 (Tasa respuesta: 4,98%)</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>90,79%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>78,36%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>81,89%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -420,13 +420,13 @@
     <t>81,4%</t>
   </si>
   <si>
-    <t>48,98%</t>
+    <t>49,69%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>54,14%</t>
   </si>
   <si>
     <t>0%</t>
@@ -438,67 +438,67 @@
     <t>18,6%</t>
   </si>
   <si>
-    <t>51,02%</t>
+    <t>50,31%</t>
   </si>
   <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>45,86%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E56745-DAC2-4F2D-9E89-0B57779F5A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3DFF16-9E9D-45E2-8748-D4F54F3F5DC7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1661,7 +1661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15ECDB32-7ECC-4315-9A0A-25620400658B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447A7042-56E9-4E8F-AD56-5CBCFF5D7CE3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
